--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Il16-Cd4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Il16-Cd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.67001101783191</v>
+        <v>6.566789</v>
       </c>
       <c r="H2">
-        <v>5.67001101783191</v>
+        <v>19.700367</v>
       </c>
       <c r="I2">
-        <v>0.3478146059083807</v>
+        <v>0.3634074580963036</v>
       </c>
       <c r="J2">
-        <v>0.3478146059083807</v>
+        <v>0.3634074580963036</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.19426221574991</v>
+        <v>0.7633283333333334</v>
       </c>
       <c r="N2">
-        <v>4.19426221574991</v>
+        <v>2.289985</v>
       </c>
       <c r="O2">
-        <v>0.5495410685546404</v>
+        <v>0.07247598971834317</v>
       </c>
       <c r="P2">
-        <v>0.5495410685546404</v>
+        <v>0.07247598971834318</v>
       </c>
       <c r="Q2">
-        <v>23.78151297497807</v>
+        <v>5.012616102721667</v>
       </c>
       <c r="R2">
-        <v>23.78151297497807</v>
+        <v>45.113544924495</v>
       </c>
       <c r="S2">
-        <v>0.1911384101898027</v>
+        <v>0.02633831519655692</v>
       </c>
       <c r="T2">
-        <v>0.1911384101898027</v>
+        <v>0.02633831519655693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.67001101783191</v>
+        <v>6.566789</v>
       </c>
       <c r="H3">
-        <v>5.67001101783191</v>
+        <v>19.700367</v>
       </c>
       <c r="I3">
-        <v>0.3478146059083807</v>
+        <v>0.3634074580963036</v>
       </c>
       <c r="J3">
-        <v>0.3478146059083807</v>
+        <v>0.3634074580963036</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.82147583918796</v>
+        <v>4.451606333333333</v>
       </c>
       <c r="N3">
-        <v>2.82147583918796</v>
+        <v>13.354819</v>
       </c>
       <c r="O3">
-        <v>0.369675706432014</v>
+        <v>0.4226681504613934</v>
       </c>
       <c r="P3">
-        <v>0.369675706432014</v>
+        <v>0.4226681504613934</v>
       </c>
       <c r="Q3">
-        <v>15.99779909474227</v>
+        <v>29.23275950206367</v>
       </c>
       <c r="R3">
-        <v>15.99779909474227</v>
+        <v>263.094835518573</v>
       </c>
       <c r="S3">
-        <v>0.1285786101465532</v>
+        <v>0.153600758177441</v>
       </c>
       <c r="T3">
-        <v>0.1285786101465532</v>
+        <v>0.153600758177441</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.67001101783191</v>
+        <v>6.566789</v>
       </c>
       <c r="H4">
-        <v>5.67001101783191</v>
+        <v>19.700367</v>
       </c>
       <c r="I4">
-        <v>0.3478146059083807</v>
+        <v>0.3634074580963036</v>
       </c>
       <c r="J4">
-        <v>0.3478146059083807</v>
+        <v>0.3634074580963036</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.616561796247643</v>
+        <v>4.617562</v>
       </c>
       <c r="N4">
-        <v>0.616561796247643</v>
+        <v>13.852686</v>
       </c>
       <c r="O4">
-        <v>0.08078322501334553</v>
+        <v>0.438425198465246</v>
       </c>
       <c r="P4">
-        <v>0.08078322501334553</v>
+        <v>0.438425198465246</v>
       </c>
       <c r="Q4">
-        <v>3.495912177898369</v>
+        <v>30.322555348418</v>
       </c>
       <c r="R4">
-        <v>3.495912177898369</v>
+        <v>272.902998135762</v>
       </c>
       <c r="S4">
-        <v>0.02809758557202482</v>
+        <v>0.1593269869396225</v>
       </c>
       <c r="T4">
-        <v>0.02809758557202482</v>
+        <v>0.1593269869396225</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.34875118187922</v>
+        <v>6.566789</v>
       </c>
       <c r="H5">
-        <v>6.34875118187922</v>
+        <v>19.700367</v>
       </c>
       <c r="I5">
-        <v>0.3894504584543207</v>
+        <v>0.3634074580963036</v>
       </c>
       <c r="J5">
-        <v>0.3894504584543207</v>
+        <v>0.3634074580963036</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.19426221574991</v>
+        <v>0.699658</v>
       </c>
       <c r="N5">
-        <v>4.19426221574991</v>
+        <v>2.098974</v>
       </c>
       <c r="O5">
-        <v>0.5495410685546404</v>
+        <v>0.06643066135501745</v>
       </c>
       <c r="P5">
-        <v>0.5495410685546404</v>
+        <v>0.06643066135501746</v>
       </c>
       <c r="Q5">
-        <v>26.6283271993536</v>
+        <v>4.594506458162</v>
       </c>
       <c r="R5">
-        <v>26.6283271993536</v>
+        <v>41.350558123458</v>
       </c>
       <c r="S5">
-        <v>0.214019021088082</v>
+        <v>0.02414139778268324</v>
       </c>
       <c r="T5">
-        <v>0.214019021088082</v>
+        <v>0.02414139778268324</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.34875118187922</v>
+        <v>6.440526333333334</v>
       </c>
       <c r="H6">
-        <v>6.34875118187922</v>
+        <v>19.321579</v>
       </c>
       <c r="I6">
-        <v>0.3894504584543207</v>
+        <v>0.3564200560729107</v>
       </c>
       <c r="J6">
-        <v>0.3894504584543207</v>
+        <v>0.3564200560729107</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.82147583918796</v>
+        <v>0.7633283333333334</v>
       </c>
       <c r="N6">
-        <v>2.82147583918796</v>
+        <v>2.289985</v>
       </c>
       <c r="O6">
-        <v>0.369675706432014</v>
+        <v>0.07247598971834317</v>
       </c>
       <c r="P6">
-        <v>0.369675706432014</v>
+        <v>0.07247598971834318</v>
       </c>
       <c r="Q6">
-        <v>17.91284806868823</v>
+        <v>4.916236231812778</v>
       </c>
       <c r="R6">
-        <v>17.91284806868823</v>
+        <v>44.246126086315</v>
       </c>
       <c r="S6">
-        <v>0.1439703733493728</v>
+        <v>0.02583189631935157</v>
       </c>
       <c r="T6">
-        <v>0.1439703733493728</v>
+        <v>0.02583189631935157</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.34875118187922</v>
+        <v>6.440526333333334</v>
       </c>
       <c r="H7">
-        <v>6.34875118187922</v>
+        <v>19.321579</v>
       </c>
       <c r="I7">
-        <v>0.3894504584543207</v>
+        <v>0.3564200560729107</v>
       </c>
       <c r="J7">
-        <v>0.3894504584543207</v>
+        <v>0.3564200560729107</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.616561796247643</v>
+        <v>4.451606333333333</v>
       </c>
       <c r="N7">
-        <v>0.616561796247643</v>
+        <v>13.354819</v>
       </c>
       <c r="O7">
-        <v>0.08078322501334553</v>
+        <v>0.4226681504613934</v>
       </c>
       <c r="P7">
-        <v>0.08078322501334553</v>
+        <v>0.4226681504613934</v>
       </c>
       <c r="Q7">
-        <v>3.914397432628798</v>
+        <v>28.67068781546678</v>
       </c>
       <c r="R7">
-        <v>3.914397432628798</v>
+        <v>258.036190339201</v>
       </c>
       <c r="S7">
-        <v>0.03146106401686597</v>
+        <v>0.1506474058876833</v>
       </c>
       <c r="T7">
-        <v>0.03146106401686597</v>
+        <v>0.1506474058876833</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.12178776373301</v>
+        <v>6.440526333333334</v>
       </c>
       <c r="H8">
-        <v>4.12178776373301</v>
+        <v>19.321579</v>
       </c>
       <c r="I8">
-        <v>0.2528421871090062</v>
+        <v>0.3564200560729107</v>
       </c>
       <c r="J8">
-        <v>0.2528421871090062</v>
+        <v>0.3564200560729107</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.19426221574991</v>
+        <v>4.617562</v>
       </c>
       <c r="N8">
-        <v>4.19426221574991</v>
+        <v>13.852686</v>
       </c>
       <c r="O8">
-        <v>0.5495410685546404</v>
+        <v>0.438425198465246</v>
       </c>
       <c r="P8">
-        <v>0.5495410685546404</v>
+        <v>0.438425198465246</v>
       </c>
       <c r="Q8">
-        <v>17.28785867876568</v>
+        <v>29.73952965679934</v>
       </c>
       <c r="R8">
-        <v>17.28785867876568</v>
+        <v>267.655766911194</v>
       </c>
       <c r="S8">
-        <v>0.1389471656795756</v>
+        <v>0.15626353382076</v>
       </c>
       <c r="T8">
-        <v>0.1389471656795756</v>
+        <v>0.15626353382076</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.12178776373301</v>
+        <v>6.440526333333334</v>
       </c>
       <c r="H9">
-        <v>4.12178776373301</v>
+        <v>19.321579</v>
       </c>
       <c r="I9">
-        <v>0.2528421871090062</v>
+        <v>0.3564200560729107</v>
       </c>
       <c r="J9">
-        <v>0.2528421871090062</v>
+        <v>0.3564200560729107</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.82147583918796</v>
+        <v>0.699658</v>
       </c>
       <c r="N9">
-        <v>2.82147583918796</v>
+        <v>2.098974</v>
       </c>
       <c r="O9">
-        <v>0.369675706432014</v>
+        <v>0.06643066135501745</v>
       </c>
       <c r="P9">
-        <v>0.369675706432014</v>
+        <v>0.06643066135501746</v>
       </c>
       <c r="Q9">
-        <v>11.62952458963326</v>
+        <v>4.506165773327334</v>
       </c>
       <c r="R9">
-        <v>11.62952458963326</v>
+        <v>40.555491959946</v>
       </c>
       <c r="S9">
-        <v>0.09346961413533733</v>
+        <v>0.02367722004511586</v>
       </c>
       <c r="T9">
-        <v>0.09346961413533733</v>
+        <v>0.02367722004511586</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.12178776373301</v>
+        <v>4.846355333333333</v>
       </c>
       <c r="H10">
-        <v>4.12178776373301</v>
+        <v>14.539066</v>
       </c>
       <c r="I10">
-        <v>0.2528421871090062</v>
+        <v>0.2681983040292799</v>
       </c>
       <c r="J10">
-        <v>0.2528421871090062</v>
+        <v>0.2681983040292799</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.616561796247643</v>
+        <v>0.7633283333333334</v>
       </c>
       <c r="N10">
-        <v>0.616561796247643</v>
+        <v>2.289985</v>
       </c>
       <c r="O10">
-        <v>0.08078322501334553</v>
+        <v>0.07247598971834317</v>
       </c>
       <c r="P10">
-        <v>0.08078322501334553</v>
+        <v>0.07247598971834318</v>
       </c>
       <c r="Q10">
-        <v>2.54133686735878</v>
+        <v>3.699360339334445</v>
       </c>
       <c r="R10">
-        <v>2.54133686735878</v>
+        <v>33.29424305401</v>
       </c>
       <c r="S10">
-        <v>0.02042540729409326</v>
+        <v>0.01943793752530316</v>
       </c>
       <c r="T10">
-        <v>0.02042540729409326</v>
+        <v>0.01943793752530316</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.161269803508001</v>
+        <v>4.846355333333333</v>
       </c>
       <c r="H11">
-        <v>0.161269803508001</v>
+        <v>14.539066</v>
       </c>
       <c r="I11">
-        <v>0.009892748528292229</v>
+        <v>0.2681983040292799</v>
       </c>
       <c r="J11">
-        <v>0.009892748528292229</v>
+        <v>0.2681983040292799</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.19426221574991</v>
+        <v>4.451606333333333</v>
       </c>
       <c r="N11">
-        <v>4.19426221574991</v>
+        <v>13.354819</v>
       </c>
       <c r="O11">
-        <v>0.5495410685546404</v>
+        <v>0.4226681504613934</v>
       </c>
       <c r="P11">
-        <v>0.5495410685546404</v>
+        <v>0.4226681504613934</v>
       </c>
       <c r="Q11">
-        <v>0.6764078433950208</v>
+        <v>21.57406609545044</v>
       </c>
       <c r="R11">
-        <v>0.6764078433950208</v>
+        <v>194.166594859054</v>
       </c>
       <c r="S11">
-        <v>0.005436471597180057</v>
+        <v>0.1133588811209382</v>
       </c>
       <c r="T11">
-        <v>0.005436471597180057</v>
+        <v>0.1133588811209382</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.161269803508001</v>
+        <v>4.846355333333333</v>
       </c>
       <c r="H12">
-        <v>0.161269803508001</v>
+        <v>14.539066</v>
       </c>
       <c r="I12">
-        <v>0.009892748528292229</v>
+        <v>0.2681983040292799</v>
       </c>
       <c r="J12">
-        <v>0.009892748528292229</v>
+        <v>0.2681983040292799</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.82147583918796</v>
+        <v>4.617562</v>
       </c>
       <c r="N12">
-        <v>2.82147583918796</v>
+        <v>13.852686</v>
       </c>
       <c r="O12">
-        <v>0.369675706432014</v>
+        <v>0.438425198465246</v>
       </c>
       <c r="P12">
-        <v>0.369675706432014</v>
+        <v>0.438425198465246</v>
       </c>
       <c r="Q12">
-        <v>0.4550188541884145</v>
+        <v>22.37834622569734</v>
       </c>
       <c r="R12">
-        <v>0.4550188541884145</v>
+        <v>201.405116031276</v>
       </c>
       <c r="S12">
-        <v>0.003657108800750697</v>
+        <v>0.1175848946720794</v>
       </c>
       <c r="T12">
-        <v>0.003657108800750697</v>
+        <v>0.1175848946720794</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.161269803508001</v>
+        <v>4.846355333333333</v>
       </c>
       <c r="H13">
-        <v>0.161269803508001</v>
+        <v>14.539066</v>
       </c>
       <c r="I13">
-        <v>0.009892748528292229</v>
+        <v>0.2681983040292799</v>
       </c>
       <c r="J13">
-        <v>0.009892748528292229</v>
+        <v>0.2681983040292799</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.616561796247643</v>
+        <v>0.699658</v>
       </c>
       <c r="N13">
-        <v>0.616561796247643</v>
+        <v>2.098974</v>
       </c>
       <c r="O13">
-        <v>0.08078322501334553</v>
+        <v>0.06643066135501745</v>
       </c>
       <c r="P13">
-        <v>0.08078322501334553</v>
+        <v>0.06643066135501746</v>
       </c>
       <c r="Q13">
-        <v>0.09943279973139753</v>
+        <v>3.390791279809333</v>
       </c>
       <c r="R13">
-        <v>0.09943279973139753</v>
+        <v>30.517121518284</v>
       </c>
       <c r="S13">
-        <v>0.0007991681303614741</v>
+        <v>0.0178165907109591</v>
       </c>
       <c r="T13">
-        <v>0.0007991681303614741</v>
+        <v>0.0178165907109591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.216374</v>
+      </c>
+      <c r="H14">
+        <v>0.6491220000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.01197418180150597</v>
+      </c>
+      <c r="J14">
+        <v>0.01197418180150597</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.7633283333333334</v>
+      </c>
+      <c r="N14">
+        <v>2.289985</v>
+      </c>
+      <c r="O14">
+        <v>0.07247598971834317</v>
+      </c>
+      <c r="P14">
+        <v>0.07247598971834318</v>
+      </c>
+      <c r="Q14">
+        <v>0.1651644047966667</v>
+      </c>
+      <c r="R14">
+        <v>1.48647964317</v>
+      </c>
+      <c r="S14">
+        <v>0.0008678406771315188</v>
+      </c>
+      <c r="T14">
+        <v>0.0008678406771315189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.216374</v>
+      </c>
+      <c r="H15">
+        <v>0.6491220000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.01197418180150597</v>
+      </c>
+      <c r="J15">
+        <v>0.01197418180150597</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.451606333333333</v>
+      </c>
+      <c r="N15">
+        <v>13.354819</v>
+      </c>
+      <c r="O15">
+        <v>0.4226681504613934</v>
+      </c>
+      <c r="P15">
+        <v>0.4226681504613934</v>
+      </c>
+      <c r="Q15">
+        <v>0.9632118687686668</v>
+      </c>
+      <c r="R15">
+        <v>8.668906818918</v>
+      </c>
+      <c r="S15">
+        <v>0.005061105275331005</v>
+      </c>
+      <c r="T15">
+        <v>0.005061105275331004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.216374</v>
+      </c>
+      <c r="H16">
+        <v>0.6491220000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.01197418180150597</v>
+      </c>
+      <c r="J16">
+        <v>0.01197418180150597</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.617562</v>
+      </c>
+      <c r="N16">
+        <v>13.852686</v>
+      </c>
+      <c r="O16">
+        <v>0.438425198465246</v>
+      </c>
+      <c r="P16">
+        <v>0.438425198465246</v>
+      </c>
+      <c r="Q16">
+        <v>0.9991203601880002</v>
+      </c>
+      <c r="R16">
+        <v>8.992083241692001</v>
+      </c>
+      <c r="S16">
+        <v>0.005249783032784194</v>
+      </c>
+      <c r="T16">
+        <v>0.005249783032784193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.216374</v>
+      </c>
+      <c r="H17">
+        <v>0.6491220000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.01197418180150597</v>
+      </c>
+      <c r="J17">
+        <v>0.01197418180150597</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.699658</v>
+      </c>
+      <c r="N17">
+        <v>2.098974</v>
+      </c>
+      <c r="O17">
+        <v>0.06643066135501745</v>
+      </c>
+      <c r="P17">
+        <v>0.06643066135501746</v>
+      </c>
+      <c r="Q17">
+        <v>0.151387800092</v>
+      </c>
+      <c r="R17">
+        <v>1.362490200828</v>
+      </c>
+      <c r="S17">
+        <v>0.000795452816259256</v>
+      </c>
+      <c r="T17">
+        <v>0.0007954528162592561</v>
       </c>
     </row>
   </sheetData>
